--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_181.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_181.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,678 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:00:49.060000', '0:00:59.700000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:23.040000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[('0:00:11', '0:00:16.520000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:34.680000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D/5', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[['D', 'D', 'G/5', 'D', 'G/5', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[('0:00:16.525575', '0:00:31.142537')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:35.013000', '0:00:48.463000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.4, 13.72)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:04.615532', '0:00:10.052496')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.42, 22.86)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:15.940000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:55.580000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[('0:00:44.160000', '0:00:58.080000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3), (0.38, 3.7)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:01:58.440000', '0:02:01.680000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2613430127041742</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G', 'A', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C', 'D', 'G', 'C']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(31.43458, 40.304603)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(53.176848, 63.382018)]</t>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(75.56, 95.68)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(80.2, 86.86), (13.12, 19.96)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
